--- a/LIS/indicies.xlsx
+++ b/LIS/indicies.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIHASA\Documents\GitHub\master\LIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC394921-4BDF-4518-8581-639E0CBA2F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3DEEF-15B9-4829-BC39-CC798261F6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38380" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicies" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicies!$A$1:$E$157</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -121,7 +124,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,8 +714,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,12 +1075,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T111" sqref="T111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1090,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1098,16 +1113,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>0.37972164382457302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E2" s="1">
+        <v>-0.23213419888903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1118,13 +1133,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>-0.23212395866673199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.20792303771947801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1132,16 +1147,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0.33781272183475403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-3.75682725038975E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1152,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>-0.20791470530089601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-0.42357463773579601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1166,16 +1181,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0.141204272067151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.41250926190253701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1186,13 +1201,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>-7.5527665107994205E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.10814424573131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1200,16 +1215,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0.76536508796400005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1.2719850119001201E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1220,13 +1235,13 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>-0.42357466557618001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-4.7861279766918001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>0.355003215886666</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1257,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>-0.112944137806454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>-0.112949020542626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1271,13 +1286,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0.62528723491028004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.37972164382457302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1285,16 +1300,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>-0.41249250518256098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.33781272183475403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>0.25724409049932001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1325,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>-8.0251065339274702E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>-8.0254627852563695E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1339,13 +1354,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0.84428476026261701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.6350125906472406E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1353,16 +1368,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>-0.10824802414403301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.76536508796400005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1394,7 @@
         <v>0.35817266732469399</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1393,10 +1408,10 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.16810436999883499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.168118282976635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1407,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0.77629595844587196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.62528723491028004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1421,16 +1436,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>-1.27753271127597E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.84428476026261701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>0.23218482593939499</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1461,10 +1476,10 @@
         <v>19</v>
       </c>
       <c r="E23">
-        <v>1.78549267988444E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>1.7846688921144702E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1475,13 +1490,13 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>0.80178000685990403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.77629595844587196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1489,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="E25">
-        <v>-4.7874244372320102E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E25" s="1">
+        <v>0.80178000685990403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1530,7 @@
         <v>0.40341774008796499</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1529,10 +1544,10 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>0.18368156606122901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.183674173858659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1540,16 +1555,16 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28">
-        <v>0.41271055490442698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E28" s="1">
+        <v>-0.23249498619770501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1560,13 +1575,13 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>-0.23249498619770501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.212962871304266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1574,16 +1589,16 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>0.37859482225041202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.23592241502215699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1594,13 +1609,13 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>-0.212962871304266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.29773878722031399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1608,16 +1623,16 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>0.608124629465425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.37259065446761502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1628,13 +1643,13 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>-0.30368186328470897</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-0.20036217119369201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1642,16 +1657,16 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>0.72916174254562705</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.7797268516248801E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1662,13 +1677,13 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>-0.29773878722031399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-0.19024784756579599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1685,7 +1700,7 @@
         <v>0.26029716733480601</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>2.9175552372271801E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1713,13 +1728,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>0.66468176352091701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.41271055490442698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1727,16 +1742,16 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39">
-        <v>-0.37259065446761502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.37859482225041202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1753,7 +1768,7 @@
         <v>0.33478051535102499</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1770,7 +1785,7 @@
         <v>-7.1704356260951202E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1781,13 +1796,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42">
-        <v>0.79615785983548804</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.56031659124992295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1795,16 +1810,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43">
-        <v>-0.20036217119369201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.72916174254562705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>0.39142860914719502</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1838,7 +1853,7 @@
         <v>0.12679009880370701</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1849,13 +1864,13 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46">
-        <v>0.80825800596602004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.66468176352091701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1863,16 +1878,16 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47">
-        <v>2.7797268516248801E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.79615785983548804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +1904,7 @@
         <v>0.27678585629434799</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1906,7 +1921,7 @@
         <v>2.62321027708903E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1917,13 +1932,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50">
-        <v>0.77840461684429296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.80825800596602004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1931,16 +1946,16 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="E51">
-        <v>-0.19024784756579599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E51" s="1">
+        <v>0.77840461684429296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>0.42538322250682198</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1974,7 +1989,7 @@
         <v>0.118565127225937</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +2006,7 @@
         <v>0.38905587590316598</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2023,7 @@
         <v>-0.24572271122911901</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -2025,7 +2040,7 @@
         <v>0.31699289032656802</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2057,7 @@
         <v>-0.19865193187840999</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2056,10 +2071,10 @@
         <v>11</v>
       </c>
       <c r="E58">
-        <v>0.450549826689498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+        <v>0.40879307621380701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -2073,10 +2088,10 @@
         <v>11</v>
       </c>
       <c r="E59">
-        <v>-0.26472844162605902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>-0.19256908294824299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2093,7 +2108,7 @@
         <v>0.84199535147388804</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>-0.57012296901729198</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +2142,7 @@
         <v>0.32637004232383898</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>-7.7573650364555796E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -2161,7 +2176,7 @@
         <v>0.64855605445410003</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -2178,7 +2193,7 @@
         <v>-0.39318664950654802</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>0.1873003746569</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>4.2012213936309999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>0.89484223157531095</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>-0.51876202404029303</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2263,7 +2278,7 @@
         <v>0.25069483989022201</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -2280,7 +2295,7 @@
         <v>4.9973281295326598E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>0.69572677555552598</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>-0.18134723784874901</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2331,7 +2346,7 @@
         <v>0.24768489455659501</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>-1.7847750650049001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>0.90707428382501099</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>-0.24082517183029001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>0.36588595485144698</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2416,7 +2431,7 @@
         <v>0.135878993062897</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>0.18201818379104101</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2450,7 +2465,7 @@
         <v>-7.9294129262854396E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>0.154700934641855</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2497,8 +2512,8 @@
       <c r="D84" t="s">
         <v>11</v>
       </c>
-      <c r="E84">
-        <v>0.40980967093376403</v>
+      <c r="E84" s="1">
+        <v>0.32465157244644999</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -2514,11 +2529,11 @@
       <c r="D85" t="s">
         <v>11</v>
       </c>
-      <c r="E85">
-        <v>-0.25125157766120099</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E85" s="1">
+        <v>-0.20829867152335499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>0.82734195641054697</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2552,7 +2567,7 @@
         <v>-0.42486950928005701</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -2569,7 +2584,7 @@
         <v>0.20347003451460899</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>-4.7217165543076998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2603,7 +2618,7 @@
         <v>0.73922582123124603</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -2620,7 +2635,7 @@
         <v>-0.466661573677571</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>0.17923854044108301</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>-5.7517531662172702E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>0.90466281252152203</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2688,7 +2703,7 @@
         <v>-6.3327978451341402E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -2705,7 +2720,7 @@
         <v>0.28276738279918801</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>9.6439475888187506E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>0.87734948898690301</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>0.213493665705109</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>0.225301961039753</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +2805,7 @@
         <v>-4.5655525120152996E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -2807,7 +2822,7 @@
         <v>0.92871328118704599</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -2824,7 +2839,7 @@
         <v>6.2612260826093905E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>0.33818779334219001</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -2858,7 +2873,7 @@
         <v>0.117119908925804</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -2875,7 +2890,7 @@
         <v>0.33895652610562899</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +2907,7 @@
         <v>-0.17449682885246601</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2909,7 +2924,7 @@
         <v>0.31125536781485003</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -2939,8 +2954,8 @@
       <c r="D110" t="s">
         <v>11</v>
       </c>
-      <c r="E110">
-        <v>0.39819627809110297</v>
+      <c r="E110" s="1">
+        <v>0.325533627501916</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -2956,11 +2971,11 @@
       <c r="D111" t="s">
         <v>11</v>
       </c>
-      <c r="E111">
-        <v>-0.18021072783316</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E111" s="1">
+        <v>-0.14309015299280101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -2977,7 +2992,7 @@
         <v>0.77674066366057304</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -2994,7 +3009,7 @@
         <v>-0.35647224693602297</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -3011,7 +3026,7 @@
         <v>0.28374960734816101</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -3028,7 +3043,7 @@
         <v>-4.1476386614784999E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -3045,7 +3060,7 @@
         <v>0.67608602347774105</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -3062,7 +3077,7 @@
         <v>-0.32424902316751403</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>0.25974627489645602</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -3096,7 +3111,7 @@
         <v>-4.9393937544868802E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -3113,7 +3128,7 @@
         <v>0.84026823148211005</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -3130,7 +3145,7 @@
         <v>-0.27876148149209601</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -3147,7 +3162,7 @@
         <v>0.36906815103468898</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>0.108288904799667</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +3196,7 @@
         <v>0.84287425803153604</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -3198,7 +3213,7 @@
         <v>-1.6769839863897299E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -3215,7 +3230,7 @@
         <v>0.22669233048568699</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -3232,7 +3247,7 @@
         <v>4.1096951002097697E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -3249,7 +3264,7 @@
         <v>0.82662548743724296</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -3266,7 +3281,7 @@
         <v>-0.23165769676766701</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>0.44687229257406802</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -3300,7 +3315,7 @@
         <v>0.102664954370447</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -3317,7 +3332,7 @@
         <v>0.27355395143439698</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -3334,7 +3349,7 @@
         <v>-0.12715564357435299</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3366,7 @@
         <v>0.236957205764597</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -3381,8 +3396,8 @@
       <c r="D136" t="s">
         <v>11</v>
       </c>
-      <c r="E136">
-        <v>0.34769291068383501</v>
+      <c r="E136" s="1">
+        <v>0.30132407734815603</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -3398,11 +3413,11 @@
       <c r="D137" t="s">
         <v>11</v>
       </c>
-      <c r="E137">
-        <v>-0.119691406105063</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E137" s="1">
+        <v>-7.65080262470723E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>0.81401954635814799</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>-0.30197858918325199</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -3453,7 +3468,7 @@
         <v>0.25298294228884899</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -3470,7 +3485,7 @@
         <v>-6.6608964320438004E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -3487,7 +3502,7 @@
         <v>0.61903445686725</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -3504,7 +3519,7 @@
         <v>-0.274107801039782</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -3521,7 +3536,7 @@
         <v>0.214203754820463</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>30</v>
       </c>
@@ -3538,7 +3553,7 @@
         <v>-3.3227851435022701E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -3555,7 +3570,7 @@
         <v>0.89070448560304605</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>-0.220316316389251</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>0.41854683280781002</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -3606,7 +3621,7 @@
         <v>7.2139965008691104E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3623,7 +3638,7 @@
         <v>0.82139804525114302</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>2.9042309015507799E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -3657,7 +3672,7 @@
         <v>0.23764131612176401</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -3674,7 +3689,7 @@
         <v>3.0708408934132899E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -3691,7 +3706,7 @@
         <v>0.81761426012375604</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -3708,7 +3723,7 @@
         <v>-0.161503678272193</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -3725,7 +3740,7 @@
         <v>0.35688728891327098</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -3743,6 +3758,23 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E157" xr:uid="{118315E3-295D-4C9D-85BF-B649CCADE5E9}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="jp"/>
+        <filter val="uk"/>
+        <filter val="us"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="care"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A28:E51">
+      <sortCondition ref="C1:C157"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
